--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-practitioner.xlsx
@@ -477,7 +477,7 @@
 Practitioner.identifier.systemは以下の割り当てる。
 - 医師の場合 : urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号  
 - 歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号
-医療機関識別OID番号は患者IDの発行者である施設を識別するものであり、医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード（１０桁）)を参照すること。  
+医療機関識別OID番号は患者IDの発行者である施設を識別するものであり、医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
 例：医療機関コード「1312345670」での医師の場合「urn:oid:1.2.392.100495.20.3.41.11312345670」  
 なお、rn:oid:1.2.392.100495.20.3.41 の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。  
 地域医療連携ネットワークの地域医療従事者IDを指定する場合も同様に、地域医療従事者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。  

--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-practitioner.xlsx
@@ -1576,13 +1576,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
     &lt;code value="narcotics-practitioner"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalLicenseCertificate_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicalLicenseCertificate_VS</t>
   </si>
   <si>
     <t>Period during which the qualification is valid.</t>
@@ -1614,7 +1614,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
     &lt;code value="medical-registration"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1984,7 +1984,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.0" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.75390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
